--- a/activities/activity3/data/class_sample.xlsx
+++ b/activities/activity3/data/class_sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattlang/Cursor/macroeconomics-course-website/activities/activity3/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F284C2E-883B-024F-BC5B-3A8E0DFC7F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562C6F8C-8A91-8D40-AE53-641410D19CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="2200" windowWidth="28020" windowHeight="17440" xr2:uid="{E70B4F81-A96B-964C-A409-E2AFB58607CE}"/>
+    <workbookView xWindow="34140" yWindow="1560" windowWidth="28020" windowHeight="17440" xr2:uid="{E70B4F81-A96B-964C-A409-E2AFB58607CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -550,9 +550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864FA0E7-C8F4-5443-A6E9-A9B985BF6514}">
   <dimension ref="A1:AA12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AA1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
